--- a/SOURS/all-copy.xlsx
+++ b/SOURS/all-copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ДОКУМЕНТЫ\1 смена СВК\Яицких Т.Е\ОПИСИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C498A6D0-DD06-4D43-8A81-EB001A3CC829}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1584747-33A2-46B1-AEB3-0A771DEA8D0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Авто" sheetId="1" r:id="rId1"/>
@@ -5177,7 +5177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5224,9 +5224,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5537,7 +5534,7 @@
   </sheetPr>
   <dimension ref="A1:F183"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="A1:XFD1048576"/>
@@ -8529,7 +8526,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15274,7 +15271,7 @@
   <dimension ref="A1:G520"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17159,7 +17156,6 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="18"/>
       <c r="B253" t="s">
         <v>625</v>
       </c>
@@ -19197,8 +19193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E46EAF-6229-4AF1-A026-074DCCF9554E}">
   <dimension ref="A1:G533"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19213,7 +19209,7 @@
       <c r="A1" t="s">
         <v>998</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>564</v>
       </c>
       <c r="F1" s="14" t="s">
@@ -19238,7 +19234,7 @@
       <c r="A3" t="s">
         <v>1000</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>1492</v>
       </c>
       <c r="F3" s="14" t="s">
@@ -19319,7 +19315,7 @@
       <c r="A9" t="s">
         <v>1006</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>608</v>
       </c>
       <c r="F9" t="s">
@@ -19386,7 +19382,7 @@
       <c r="A14" t="s">
         <v>1011</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>1104</v>
       </c>
       <c r="F14" t="s">
@@ -19467,7 +19463,7 @@
       <c r="A20" t="s">
         <v>1016</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>1376</v>
       </c>
       <c r="F20" t="s">
